--- a/masters_defense/tables.xlsx
+++ b/masters_defense/tables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Technology used</t>
   </si>
@@ -84,12 +84,6 @@
     <t>3.4519</t>
   </si>
   <si>
-    <t>0.0097</t>
-  </si>
-  <si>
-    <t>0.0076</t>
-  </si>
-  <si>
     <t>CPU (4 threads)</t>
   </si>
   <si>
@@ -100,6 +94,9 @@
   </si>
   <si>
     <t>3.4557</t>
+  </si>
+  <si>
+    <t>CPU variables preallocated</t>
   </si>
 </sst>
 </file>
@@ -270,54 +267,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,6 +338,432 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19662729658792652"/>
+          <c:y val="3.0490960207266389E-2"/>
+          <c:w val="0.79719335083114606"/>
+          <c:h val="0.64666041142317887"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>time (ms) logarithmic scale</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$11:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Excel VBA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CPU (4 threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CPU variables preallocated</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$11:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>183547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="101910784"/>
+        <c:axId val="102006784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="101910784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102006784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102006784"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400"/>
+                  <a:t>time (ms) logarithmic scale</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.18019945130024798"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101910784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21443285214348207"/>
+          <c:y val="4.4222509924018029E-2"/>
+          <c:w val="0.6694155730533683"/>
+          <c:h val="0.64940672136652922"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>time (ms)</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$6:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CPU (4 threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CPU (single thread) with random variables preallocated and generated by GPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$6:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="77152256"/>
+        <c:axId val="76903936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="77152256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76903936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76903936"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
+                  <a:t> (ms) logarithmic scale</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77152256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,7 +1021,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -599,10 +1030,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:J10"/>
+  <dimension ref="B3:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,20 +1043,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -634,18 +1065,18 @@
       <c r="C4">
         <v>100</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="15" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -656,22 +1087,22 @@
       <c r="C5">
         <v>104</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="5">
         <v>183547</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -682,23 +1113,23 @@
       <c r="C6">
         <v>0.1</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="18">
-        <v>21342</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5">
+        <v>18240</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>22</v>
+      <c r="I6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -708,22 +1139,22 @@
       <c r="C7">
         <v>0.05</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5">
+        <v>189</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="18">
-        <v>189</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -734,22 +1165,22 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="10">
         <v>63</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="G8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -767,6 +1198,38 @@
       </c>
       <c r="C10">
         <v>7000000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>183547</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5">
+        <v>18240</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -778,5 +1241,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/masters_defense/tables.xlsx
+++ b/masters_defense/tables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Technology used</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>CPU variables preallocated</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>96.51</t>
+  </si>
+  <si>
+    <t>289.52</t>
+  </si>
+  <si>
+    <t>base = CPU 4 threads</t>
+  </si>
+  <si>
+    <t>Speed up in time</t>
   </si>
 </sst>
 </file>
@@ -121,22 +139,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -151,38 +158,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -227,34 +203,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -267,18 +217,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -287,40 +231,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,11 +379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="101910784"/>
-        <c:axId val="102006784"/>
+        <c:axId val="75905664"/>
+        <c:axId val="77152640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101910784"/>
+        <c:axId val="75905664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +402,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102006784"/>
+        <c:crossAx val="77152640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -469,7 +410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102006784"/>
+        <c:axId val="77152640"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -507,7 +448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101910784"/>
+        <c:crossAx val="75905664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -616,11 +557,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="77152256"/>
-        <c:axId val="76903936"/>
+        <c:axId val="77501568"/>
+        <c:axId val="77503488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77152256"/>
+        <c:axId val="77501568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,7 +580,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76903936"/>
+        <c:crossAx val="77503488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -647,7 +588,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76903936"/>
+        <c:axId val="77503488"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -682,7 +623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77152256"/>
+        <c:crossAx val="77501568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -703,16 +644,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1021,7 +962,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1030,161 +971,180 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:J14"/>
+  <dimension ref="B3:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E3" s="17" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="K4" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
         <v>104</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="14">
         <v>183547</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
         <v>0.1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="14">
         <v>18240</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
         <v>0.05</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="14">
         <v>189</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="15">
         <v>63</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="K8" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -1192,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1200,35 +1160,35 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="4" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>183547</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E12" s="4" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>18240</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="9" t="s">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="7">
         <v>63</v>
       </c>
     </row>
